--- a/chapter13/記事一覧3.xlsx
+++ b/chapter13/記事一覧3.xlsx
@@ -159,6 +159,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -184,6 +187,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -209,6 +215,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -234,6 +243,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -259,6 +271,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -284,6 +299,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -309,6 +327,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -334,6 +355,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -359,6 +383,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -384,6 +411,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -409,6 +439,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -434,6 +467,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -459,6 +495,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -484,6 +523,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -509,6 +551,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -534,6 +579,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -559,6 +607,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -584,6 +635,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -609,6 +663,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -628,6 +685,1069 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
